--- a/data_analysis/playlists_descriptions.xlsx
+++ b/data_analysis/playlists_descriptions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10119"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10209"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/julienmbarki/Documents/Doctorat/Publications/Article 2/Data/Code/data_analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCA4C1E4-C1AE-474E-8317-36D8947A16CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A7A5B13-63C1-D245-A1B6-3F5E198B09EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="294">
   <si>
     <t>playlist_id</t>
   </si>
@@ -754,9 +754,6 @@
     <t>Tous les hits français du moment dans une playlist ! Sur la cover : Clara Luciani</t>
   </si>
   <si>
-    <t>other</t>
-  </si>
-  <si>
     <t>Vous aimez la chaleur... Voici le mix idéal.</t>
   </si>
   <si>
@@ -811,9 +808,6 @@
     <t>Les femmes montent le son. Playlist réalisée avec Theodora (du titre #1 au #9).</t>
   </si>
   <si>
-    <t xml:space="preserve">other </t>
-  </si>
-  <si>
     <t>Niklas Dee au top des bangers dance/electro du moment !</t>
   </si>
   <si>
@@ -899,6 +893,15 @@
   </si>
   <si>
     <t>Rythmez votre séance de sport au son des années 80 !</t>
+  </si>
+  <si>
+    <t>type_2</t>
+  </si>
+  <si>
+    <t>mixed</t>
+  </si>
+  <si>
+    <t>comments</t>
   </si>
 </sst>
 </file>
@@ -930,7 +933,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -953,13 +956,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1268,18 +1285,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A102" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="I116" sqref="I116"/>
+    <sheetView tabSelected="1" topLeftCell="A94" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="G124" sqref="G124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="28.83203125" customWidth="1"/>
-    <col min="3" max="3" width="18.33203125" customWidth="1"/>
+    <col min="3" max="3" width="36" customWidth="1"/>
     <col min="4" max="4" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1292,8 +1309,14 @@
       <c r="D1" s="1" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E1" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>56</v>
       </c>
@@ -1304,7 +1327,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>57</v>
       </c>
@@ -1315,7 +1338,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1328,8 +1351,14 @@
       <c r="D4" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E4" t="s">
+        <v>215</v>
+      </c>
+      <c r="F4" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1340,7 +1369,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1353,8 +1382,14 @@
       <c r="D6" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E6" t="s">
+        <v>216</v>
+      </c>
+      <c r="F6" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -1368,7 +1403,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>62</v>
       </c>
@@ -1379,7 +1414,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1390,13 +1425,16 @@
         <v>181</v>
       </c>
       <c r="D9" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="E9" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+        <v>216</v>
+      </c>
+      <c r="F9" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>64</v>
       </c>
@@ -1407,7 +1445,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>65</v>
       </c>
@@ -1418,7 +1456,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -1432,7 +1470,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -1445,8 +1483,14 @@
       <c r="D13" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E13" t="s">
+        <v>218</v>
+      </c>
+      <c r="F13" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -1460,7 +1504,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>11</v>
       </c>
@@ -1471,13 +1515,13 @@
         <v>185</v>
       </c>
       <c r="D15" t="s">
-        <v>216</v>
-      </c>
-      <c r="E15" t="s">
+        <v>218</v>
+      </c>
+      <c r="F15" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>70</v>
       </c>
@@ -1485,13 +1529,16 @@
         <v>222</v>
       </c>
       <c r="D16" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="E16" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+        <v>216</v>
+      </c>
+      <c r="F16" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>71</v>
       </c>
@@ -1501,8 +1548,11 @@
       <c r="E17" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F17" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>12</v>
       </c>
@@ -1516,7 +1566,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>73</v>
       </c>
@@ -1526,8 +1576,11 @@
       <c r="E19" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F19" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>74</v>
       </c>
@@ -1538,7 +1591,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>13</v>
       </c>
@@ -1551,8 +1604,14 @@
       <c r="D21" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E21" t="s">
+        <v>218</v>
+      </c>
+      <c r="F21" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>14</v>
       </c>
@@ -1566,7 +1625,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>15</v>
       </c>
@@ -1580,7 +1639,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>78</v>
       </c>
@@ -1590,8 +1649,14 @@
       <c r="D24" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E24" t="s">
+        <v>215</v>
+      </c>
+      <c r="F24" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>79</v>
       </c>
@@ -1601,8 +1666,14 @@
       <c r="D25" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E25" t="s">
+        <v>215</v>
+      </c>
+      <c r="F25" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>16</v>
       </c>
@@ -1616,7 +1687,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>17</v>
       </c>
@@ -1629,8 +1700,14 @@
       <c r="D27" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E27" t="s">
+        <v>215</v>
+      </c>
+      <c r="F27" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>82</v>
       </c>
@@ -1638,13 +1715,10 @@
         <v>227</v>
       </c>
       <c r="D28" t="s">
-        <v>216</v>
-      </c>
-      <c r="E28" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>18</v>
       </c>
@@ -1660,8 +1734,11 @@
       <c r="E29" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F29" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>84</v>
       </c>
@@ -1672,7 +1749,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>19</v>
       </c>
@@ -1688,8 +1765,11 @@
       <c r="E31" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F31" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>20</v>
       </c>
@@ -1703,7 +1783,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>21</v>
       </c>
@@ -1713,11 +1793,11 @@
       <c r="D33" t="s">
         <v>218</v>
       </c>
-      <c r="E33" t="s">
+      <c r="F33" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
         <v>88</v>
       </c>
@@ -1725,7 +1805,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>22</v>
       </c>
@@ -1735,8 +1815,14 @@
       <c r="D35" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E35" t="s">
+        <v>218</v>
+      </c>
+      <c r="F35" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
         <v>90</v>
       </c>
@@ -1747,7 +1833,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>23</v>
       </c>
@@ -1761,7 +1847,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>24</v>
       </c>
@@ -1775,7 +1861,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>25</v>
       </c>
@@ -1785,8 +1871,11 @@
       <c r="D39" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F39" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>26</v>
       </c>
@@ -1799,8 +1888,14 @@
       <c r="D40" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E40" t="s">
+        <v>218</v>
+      </c>
+      <c r="F40" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>27</v>
       </c>
@@ -1813,8 +1908,14 @@
       <c r="D41" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E41" t="s">
+        <v>218</v>
+      </c>
+      <c r="F41" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
         <v>96</v>
       </c>
@@ -1824,8 +1925,14 @@
       <c r="D42" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E42" t="s">
+        <v>215</v>
+      </c>
+      <c r="F42" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
         <v>97</v>
       </c>
@@ -1836,7 +1943,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
         <v>98</v>
       </c>
@@ -1847,7 +1954,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
         <v>99</v>
       </c>
@@ -1858,7 +1965,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>28</v>
       </c>
@@ -1872,7 +1979,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>29</v>
       </c>
@@ -1885,8 +1992,14 @@
       <c r="D47" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E47" t="s">
+        <v>218</v>
+      </c>
+      <c r="F47" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
         <v>102</v>
       </c>
@@ -1897,7 +2010,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>30</v>
       </c>
@@ -1911,7 +2024,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
         <v>104</v>
       </c>
@@ -1922,7 +2035,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B51" t="s">
         <v>105</v>
       </c>
@@ -1933,7 +2046,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>31</v>
       </c>
@@ -1947,7 +2060,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B53" t="s">
         <v>107</v>
       </c>
@@ -1955,146 +2068,125 @@
         <v>243</v>
       </c>
       <c r="D53" t="s">
-        <v>215</v>
-      </c>
-      <c r="E53" t="s">
-        <v>216</v>
-      </c>
-      <c r="F53" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B54" t="s">
         <v>108</v>
       </c>
       <c r="C54" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D54" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B55" t="s">
         <v>109</v>
       </c>
       <c r="C55" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D55" t="s">
-        <v>216</v>
-      </c>
-      <c r="E55" t="s">
         <v>218</v>
       </c>
-      <c r="F55" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B56" t="s">
         <v>110</v>
       </c>
       <c r="C56" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D56" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B57" t="s">
         <v>111</v>
       </c>
       <c r="C57" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D57" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B58" t="s">
         <v>112</v>
       </c>
       <c r="C58" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D58" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B59" t="s">
         <v>113</v>
       </c>
       <c r="C59" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D59" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B60" t="s">
         <v>114</v>
       </c>
       <c r="C60" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D60" t="s">
         <v>216</v>
       </c>
-      <c r="E60" t="s">
-        <v>215</v>
-      </c>
-      <c r="F60" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B61" t="s">
         <v>115</v>
       </c>
       <c r="C61" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D61" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B62" t="s">
         <v>116</v>
       </c>
       <c r="C62" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D62" t="s">
         <v>215</v>
       </c>
-      <c r="E62" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B63" t="s">
         <v>117</v>
       </c>
       <c r="C63" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D63" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B64" t="s">
         <v>118</v>
       </c>
       <c r="C64" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D64" t="s">
         <v>215</v>
@@ -2105,7 +2197,7 @@
         <v>119</v>
       </c>
       <c r="C65" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D65" t="s">
         <v>215</v>
@@ -2144,13 +2236,16 @@
         <v>122</v>
       </c>
       <c r="C68" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D68" t="s">
         <v>215</v>
       </c>
       <c r="E68" t="s">
-        <v>244</v>
+        <v>218</v>
+      </c>
+      <c r="F68" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
@@ -2158,7 +2253,7 @@
         <v>123</v>
       </c>
       <c r="C69" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D69" t="s">
         <v>215</v>
@@ -2169,7 +2264,7 @@
         <v>124</v>
       </c>
       <c r="C70" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D70" t="s">
         <v>216</v>
@@ -2180,7 +2275,7 @@
         <v>125</v>
       </c>
       <c r="C71" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D71" t="s">
         <v>216</v>
@@ -2191,7 +2286,7 @@
         <v>126</v>
       </c>
       <c r="C72" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D72" t="s">
         <v>215</v>
@@ -2202,12 +2297,9 @@
         <v>127</v>
       </c>
       <c r="C73" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D73" t="s">
-        <v>263</v>
-      </c>
-      <c r="E73" t="s">
         <v>218</v>
       </c>
       <c r="F73" t="s">
@@ -2219,7 +2311,7 @@
         <v>128</v>
       </c>
       <c r="C74" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D74" t="s">
         <v>215</v>
@@ -2230,7 +2322,7 @@
         <v>129</v>
       </c>
       <c r="C75" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D75" t="s">
         <v>215</v>
@@ -2241,7 +2333,7 @@
         <v>130</v>
       </c>
       <c r="C76" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D76" t="s">
         <v>215</v>
@@ -2252,7 +2344,7 @@
         <v>131</v>
       </c>
       <c r="C77" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D77" t="s">
         <v>215</v>
@@ -2263,13 +2355,10 @@
         <v>132</v>
       </c>
       <c r="C78" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D78" t="s">
         <v>218</v>
-      </c>
-      <c r="E78" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.2">
@@ -2277,7 +2366,7 @@
         <v>133</v>
       </c>
       <c r="C79" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D79" t="s">
         <v>215</v>
@@ -2288,38 +2377,41 @@
         <v>134</v>
       </c>
       <c r="C80" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D80" t="s">
+        <v>215</v>
+      </c>
+      <c r="E80" t="s">
         <v>218</v>
       </c>
-      <c r="E80" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F80" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B81" t="s">
         <v>135</v>
       </c>
       <c r="C81" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D81" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B82" t="s">
         <v>136</v>
       </c>
       <c r="C82" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D82" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>34</v>
       </c>
@@ -2327,13 +2419,13 @@
         <v>137</v>
       </c>
       <c r="C83" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D83" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>35</v>
       </c>
@@ -2341,18 +2433,18 @@
         <v>138</v>
       </c>
       <c r="C84" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D84" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B85" t="s">
         <v>139</v>
       </c>
       <c r="C85" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D85" t="s">
         <v>216</v>
@@ -2360,19 +2452,22 @@
       <c r="E85" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F85" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B86" t="s">
         <v>140</v>
       </c>
       <c r="C86" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D86" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>36</v>
       </c>
@@ -2380,7 +2475,7 @@
         <v>141</v>
       </c>
       <c r="C87" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D87" t="s">
         <v>215</v>
@@ -2388,8 +2483,11 @@
       <c r="E87" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F87" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>37</v>
       </c>
@@ -2397,79 +2495,73 @@
         <v>142</v>
       </c>
       <c r="C88" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D88" t="s">
-        <v>216</v>
-      </c>
-      <c r="E88" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B89" t="s">
         <v>143</v>
       </c>
       <c r="C89" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D89" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B90" t="s">
         <v>144</v>
       </c>
       <c r="C90" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D90" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B91" t="s">
         <v>145</v>
       </c>
       <c r="C91" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D91" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B92" t="s">
         <v>146</v>
       </c>
       <c r="C92" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D92" t="s">
         <v>218</v>
       </c>
-      <c r="E92" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B93" t="s">
         <v>147</v>
       </c>
       <c r="C93" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D93" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B94" t="s">
         <v>148</v>
       </c>
       <c r="C94" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D94" t="s">
         <v>216</v>
@@ -2477,8 +2569,11 @@
       <c r="E94" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F94" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>38</v>
       </c>
@@ -2492,10 +2587,13 @@
         <v>216</v>
       </c>
       <c r="E95" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+        <v>218</v>
+      </c>
+      <c r="F95" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>39</v>
       </c>
@@ -2510,6 +2608,9 @@
       </c>
       <c r="E96" t="s">
         <v>216</v>
+      </c>
+      <c r="F96" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.2">
@@ -2581,7 +2682,7 @@
         <v>156</v>
       </c>
       <c r="C102" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D102" t="s">
         <v>216</v>
@@ -2606,7 +2707,7 @@
         <v>158</v>
       </c>
       <c r="C104" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D104" t="s">
         <v>215</v>
@@ -2643,7 +2744,7 @@
         <v>215</v>
       </c>
       <c r="F106" t="s">
-        <v>244</v>
+        <v>292</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.2">
@@ -2707,9 +2808,9 @@
         <v>206</v>
       </c>
       <c r="D111" t="s">
-        <v>216</v>
-      </c>
-      <c r="E111" t="s">
+        <v>218</v>
+      </c>
+      <c r="F111" t="s">
         <v>221</v>
       </c>
     </row>
@@ -2724,7 +2825,13 @@
         <v>207</v>
       </c>
       <c r="D112" t="s">
-        <v>216</v>
+        <v>215</v>
+      </c>
+      <c r="E112" t="s">
+        <v>216</v>
+      </c>
+      <c r="F112" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.2">
@@ -2746,7 +2853,7 @@
         <v>168</v>
       </c>
       <c r="C114" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D114" t="s">
         <v>216</v>
@@ -2757,13 +2864,16 @@
         <v>169</v>
       </c>
       <c r="C115" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D115" t="s">
         <v>216</v>
       </c>
       <c r="E115" t="s">
         <v>215</v>
+      </c>
+      <c r="F115" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.2">
@@ -2771,7 +2881,7 @@
         <v>170</v>
       </c>
       <c r="C116" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D116" t="s">
         <v>216</v>
@@ -2802,13 +2912,10 @@
         <v>210</v>
       </c>
       <c r="D118" t="s">
+        <v>218</v>
+      </c>
+      <c r="F118" t="s">
         <v>221</v>
-      </c>
-      <c r="E118" t="s">
-        <v>218</v>
-      </c>
-      <c r="F118" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.2">
@@ -2816,13 +2923,10 @@
         <v>173</v>
       </c>
       <c r="C119" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D119" t="s">
         <v>218</v>
-      </c>
-      <c r="E119" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.2">
@@ -2830,7 +2934,7 @@
         <v>174</v>
       </c>
       <c r="C120" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D120" t="s">
         <v>216</v>
@@ -2855,7 +2959,7 @@
         <v>176</v>
       </c>
       <c r="C122" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D122" t="s">
         <v>215</v>
@@ -2866,7 +2970,7 @@
         <v>177</v>
       </c>
       <c r="C123" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D123" t="s">
         <v>216</v>
